--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola_BLJv2\Desktop\GitSSPAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola_BLJv2\Desktop\SSPAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E8799E-6892-4C7C-A123-096DA624FEEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8270CCFE-C4DD-439A-9DFA-80BB89AC0144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1415,6 +1415,94 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1431,6 +1519,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1445,106 +1545,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1726,7 +1726,7 @@
                   <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2234,7 +2234,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2553,88 +2553,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="92"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="93" t="s">
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="101" t="s">
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="103" t="s">
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="93" t="s">
+      <c r="AC7" s="120"/>
+      <c r="AD7" s="120"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="120"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="95" t="s">
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="116"/>
+      <c r="AN7" s="116"/>
+      <c r="AO7" s="117"/>
+      <c r="AP7" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="93" t="s">
+      <c r="AQ7" s="116"/>
+      <c r="AR7" s="116"/>
+      <c r="AS7" s="116"/>
+      <c r="AT7" s="116"/>
+      <c r="AU7" s="116"/>
+      <c r="AV7" s="117"/>
+      <c r="AW7" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="93"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="95" t="s">
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="116"/>
+      <c r="AZ7" s="116"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="117"/>
+      <c r="BD7" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="93"/>
-      <c r="BG7" s="93"/>
-      <c r="BH7" s="93"/>
-      <c r="BI7" s="93"/>
-      <c r="BJ7" s="96"/>
+      <c r="BE7" s="116"/>
+      <c r="BF7" s="116"/>
+      <c r="BG7" s="116"/>
+      <c r="BH7" s="116"/>
+      <c r="BI7" s="116"/>
+      <c r="BJ7" s="119"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2695,46 +2695,46 @@
       <c r="T8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="104" t="s">
+      <c r="U8" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="105" t="s">
+      <c r="V8" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="105" t="s">
+      <c r="W8" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="104" t="s">
+      <c r="X8" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="104" t="s">
+      <c r="Y8" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="104" t="s">
+      <c r="Z8" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="AA8" s="106" t="s">
+      <c r="AA8" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="AB8" s="107" t="s">
+      <c r="AB8" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="105" t="s">
+      <c r="AC8" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="105" t="s">
+      <c r="AD8" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AE8" s="104" t="s">
+      <c r="AE8" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="AF8" s="104" t="s">
+      <c r="AF8" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AG8" s="104" t="s">
+      <c r="AG8" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="106" t="s">
+      <c r="AH8" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AI8" s="16" t="s">
@@ -2853,20 +2853,20 @@
       <c r="R9" s="75"/>
       <c r="S9" s="75"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="109"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="111"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="99"/>
       <c r="AI9" s="73"/>
       <c r="AJ9" s="74"/>
       <c r="AK9" s="74"/>
@@ -2929,20 +2929,20 @@
       <c r="R10" s="56"/>
       <c r="S10" s="57"/>
       <c r="T10" s="58"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="115"/>
-      <c r="AE10" s="115"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="117"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="104"/>
+      <c r="AG10" s="104"/>
+      <c r="AH10" s="105"/>
       <c r="AI10" s="53"/>
       <c r="AJ10" s="54"/>
       <c r="AK10" s="55"/>
@@ -3010,20 +3010,20 @@
       <c r="T11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="118"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="117"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="104"/>
+      <c r="AH11" s="105"/>
       <c r="AI11" s="59"/>
       <c r="AJ11" s="60"/>
       <c r="AK11" s="61"/>
@@ -3087,20 +3087,20 @@
       <c r="R12" s="63"/>
       <c r="S12" s="57"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="119"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="116"/>
-      <c r="AG12" s="116"/>
-      <c r="AH12" s="117"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="105"/>
       <c r="AI12" s="59"/>
       <c r="AJ12" s="60"/>
       <c r="AK12" s="61"/>
@@ -3161,20 +3161,20 @@
       <c r="R13" s="55"/>
       <c r="S13" s="66"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="115"/>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="115"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="115"/>
-      <c r="AE13" s="115"/>
-      <c r="AF13" s="115"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="122"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="103"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="110"/>
       <c r="AI13" s="59"/>
       <c r="AJ13" s="60"/>
       <c r="AK13" s="55"/>
@@ -3235,20 +3235,20 @@
       <c r="R14" s="75"/>
       <c r="S14" s="75"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="109"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="112"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="111"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="99"/>
       <c r="AI14" s="73"/>
       <c r="AJ14" s="74"/>
       <c r="AK14" s="74"/>
@@ -3316,20 +3316,20 @@
       <c r="R15" s="56"/>
       <c r="S15" s="57"/>
       <c r="T15" s="58"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="115"/>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="116"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="114"/>
-      <c r="AD15" s="115"/>
-      <c r="AE15" s="115"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="117"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="105"/>
       <c r="AI15" s="53"/>
       <c r="AJ15" s="54"/>
       <c r="AK15" s="55"/>
@@ -3389,20 +3389,20 @@
       <c r="R16" s="63"/>
       <c r="S16" s="57"/>
       <c r="T16" s="58"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="119"/>
-      <c r="AD16" s="115"/>
-      <c r="AE16" s="115"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="117"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="105"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="105"/>
       <c r="AI16" s="59"/>
       <c r="AJ16" s="60"/>
       <c r="AK16" s="55"/>
@@ -3458,20 +3458,20 @@
       <c r="R17" s="56"/>
       <c r="S17" s="57"/>
       <c r="T17" s="58"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="115"/>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="123"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="115"/>
-      <c r="AE17" s="115"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="117"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="105"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="112"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="105"/>
       <c r="AI17" s="69"/>
       <c r="AJ17" s="70"/>
       <c r="AK17" s="55"/>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3532,20 +3532,20 @@
       <c r="R18" s="75"/>
       <c r="S18" s="75"/>
       <c r="T18" s="76"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="112"/>
-      <c r="AC18" s="109"/>
-      <c r="AD18" s="109"/>
-      <c r="AE18" s="109"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="111"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="99"/>
       <c r="AI18" s="73"/>
       <c r="AJ18" s="74"/>
       <c r="AK18" s="74"/>
@@ -3585,7 +3585,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51"/>
@@ -3598,25 +3598,27 @@
       <c r="M19" s="58"/>
       <c r="N19" s="53"/>
       <c r="O19" s="54"/>
-      <c r="P19" s="55"/>
+      <c r="P19" s="55">
+        <v>0.5</v>
+      </c>
       <c r="Q19" s="55"/>
       <c r="R19" s="56"/>
       <c r="S19" s="57"/>
       <c r="T19" s="58"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="115"/>
-      <c r="X19" s="115"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="113"/>
-      <c r="AC19" s="114"/>
-      <c r="AD19" s="115"/>
-      <c r="AE19" s="115"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="117"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="105"/>
+      <c r="AB19" s="101"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="105"/>
       <c r="AI19" s="53"/>
       <c r="AJ19" s="54"/>
       <c r="AK19" s="55"/>
@@ -3680,20 +3682,20 @@
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="119"/>
-      <c r="AD20" s="115"/>
-      <c r="AE20" s="115"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="117"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="105"/>
       <c r="AI20" s="59"/>
       <c r="AJ20" s="60"/>
       <c r="AK20" s="55"/>
@@ -3753,20 +3755,20 @@
       <c r="R21" s="63"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="119"/>
-      <c r="AD21" s="115"/>
-      <c r="AE21" s="115"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="117"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="104"/>
+      <c r="AG21" s="104"/>
+      <c r="AH21" s="105"/>
       <c r="AI21" s="59"/>
       <c r="AJ21" s="60"/>
       <c r="AK21" s="55"/>
@@ -3826,20 +3828,20 @@
       <c r="R22" s="63"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="115"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="119"/>
-      <c r="AD22" s="115"/>
-      <c r="AE22" s="115"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="117"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="105"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="104"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="105"/>
       <c r="AI22" s="59"/>
       <c r="AJ22" s="60"/>
       <c r="AK22" s="63"/>
@@ -3899,20 +3901,20 @@
       <c r="R23" s="56"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="119"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="116"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="117"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="105"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="104"/>
+      <c r="AG23" s="104"/>
+      <c r="AH23" s="105"/>
       <c r="AI23" s="59"/>
       <c r="AJ23" s="60"/>
       <c r="AK23" s="63"/>
@@ -3972,20 +3974,20 @@
       <c r="R24" s="56"/>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="115"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="119"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="116"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="117"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="104"/>
+      <c r="AF24" s="104"/>
+      <c r="AG24" s="104"/>
+      <c r="AH24" s="105"/>
       <c r="AI24" s="59"/>
       <c r="AJ24" s="60"/>
       <c r="AK24" s="55"/>
@@ -4045,20 +4047,20 @@
       <c r="R25" s="56"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="119"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="116"/>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="119"/>
-      <c r="AD25" s="115"/>
-      <c r="AE25" s="115"/>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="117"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="103"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="105"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="104"/>
+      <c r="AG25" s="104"/>
+      <c r="AH25" s="105"/>
       <c r="AI25" s="59"/>
       <c r="AJ25" s="60"/>
       <c r="AK25" s="55"/>
@@ -4118,20 +4120,20 @@
       <c r="R26" s="56"/>
       <c r="S26" s="57"/>
       <c r="T26" s="58"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="115"/>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="119"/>
-      <c r="AD26" s="115"/>
-      <c r="AE26" s="115"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="117"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="104"/>
+      <c r="AG26" s="104"/>
+      <c r="AH26" s="105"/>
       <c r="AI26" s="59"/>
       <c r="AJ26" s="60"/>
       <c r="AK26" s="55"/>
@@ -4187,20 +4189,20 @@
       <c r="R27" s="56"/>
       <c r="S27" s="57"/>
       <c r="T27" s="58"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="115"/>
-      <c r="X27" s="115"/>
-      <c r="Y27" s="116"/>
-      <c r="Z27" s="116"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="119"/>
-      <c r="AD27" s="115"/>
-      <c r="AE27" s="115"/>
-      <c r="AF27" s="116"/>
-      <c r="AG27" s="116"/>
-      <c r="AH27" s="117"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="107"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="104"/>
+      <c r="AG27" s="104"/>
+      <c r="AH27" s="105"/>
       <c r="AI27" s="59"/>
       <c r="AJ27" s="60"/>
       <c r="AK27" s="55"/>
@@ -4256,20 +4258,20 @@
       <c r="R28" s="56"/>
       <c r="S28" s="57"/>
       <c r="T28" s="58"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="115"/>
-      <c r="X28" s="115"/>
-      <c r="Y28" s="116"/>
-      <c r="Z28" s="116"/>
-      <c r="AA28" s="117"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="119"/>
-      <c r="AD28" s="115"/>
-      <c r="AE28" s="115"/>
-      <c r="AF28" s="116"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="117"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="107"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="105"/>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="103"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="104"/>
+      <c r="AG28" s="104"/>
+      <c r="AH28" s="105"/>
       <c r="AI28" s="59"/>
       <c r="AJ28" s="60"/>
       <c r="AK28" s="55"/>
@@ -4325,20 +4327,20 @@
       <c r="R29" s="56"/>
       <c r="S29" s="57"/>
       <c r="T29" s="58"/>
-      <c r="U29" s="125"/>
-      <c r="V29" s="126"/>
-      <c r="W29" s="115"/>
-      <c r="X29" s="115"/>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="116"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="125"/>
-      <c r="AC29" s="126"/>
-      <c r="AD29" s="115"/>
-      <c r="AE29" s="115"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="117"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="105"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="104"/>
+      <c r="AG29" s="104"/>
+      <c r="AH29" s="105"/>
       <c r="AI29" s="71"/>
       <c r="AJ29" s="72"/>
       <c r="AK29" s="55"/>
@@ -4394,20 +4396,20 @@
       <c r="R30" s="56"/>
       <c r="S30" s="57"/>
       <c r="T30" s="58"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="115"/>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="116"/>
-      <c r="Z30" s="116"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="123"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="115"/>
-      <c r="AE30" s="115"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="117"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="105"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="112"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="104"/>
+      <c r="AG30" s="104"/>
+      <c r="AH30" s="105"/>
       <c r="AI30" s="69"/>
       <c r="AJ30" s="70"/>
       <c r="AK30" s="55"/>
@@ -4468,20 +4470,20 @@
       <c r="R31" s="75"/>
       <c r="S31" s="75"/>
       <c r="T31" s="76"/>
-      <c r="U31" s="108"/>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="109"/>
-      <c r="AD31" s="109"/>
-      <c r="AE31" s="109"/>
-      <c r="AF31" s="110"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="111"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="97"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="97"/>
+      <c r="AE31" s="97"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="99"/>
       <c r="AI31" s="73"/>
       <c r="AJ31" s="74"/>
       <c r="AK31" s="74"/>
@@ -4541,20 +4543,20 @@
       <c r="R32" s="56"/>
       <c r="S32" s="57"/>
       <c r="T32" s="58"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="115"/>
-      <c r="X32" s="115"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="113"/>
-      <c r="AC32" s="114"/>
-      <c r="AD32" s="115"/>
-      <c r="AE32" s="115"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="117"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="105"/>
+      <c r="AB32" s="101"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="104"/>
+      <c r="AG32" s="104"/>
+      <c r="AH32" s="105"/>
       <c r="AI32" s="53"/>
       <c r="AJ32" s="54"/>
       <c r="AK32" s="63"/>
@@ -4614,20 +4616,20 @@
       <c r="R33" s="56"/>
       <c r="S33" s="57"/>
       <c r="T33" s="58"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="118"/>
-      <c r="AC33" s="119"/>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="115"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="117"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="105"/>
+      <c r="AB33" s="106"/>
+      <c r="AC33" s="107"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="104"/>
+      <c r="AG33" s="104"/>
+      <c r="AH33" s="105"/>
       <c r="AI33" s="59"/>
       <c r="AJ33" s="60"/>
       <c r="AK33" s="63"/>
@@ -4687,20 +4689,20 @@
       <c r="R34" s="63"/>
       <c r="S34" s="57"/>
       <c r="T34" s="58"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="119"/>
-      <c r="W34" s="115"/>
-      <c r="X34" s="115"/>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="118"/>
-      <c r="AC34" s="119"/>
-      <c r="AD34" s="115"/>
-      <c r="AE34" s="115"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="117"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="104"/>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="105"/>
+      <c r="AB34" s="106"/>
+      <c r="AC34" s="107"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="103"/>
+      <c r="AF34" s="104"/>
+      <c r="AG34" s="104"/>
+      <c r="AH34" s="105"/>
       <c r="AI34" s="59"/>
       <c r="AJ34" s="60"/>
       <c r="AK34" s="63"/>
@@ -4756,20 +4758,20 @@
       <c r="R35" s="56"/>
       <c r="S35" s="57"/>
       <c r="T35" s="58"/>
-      <c r="U35" s="123"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="115"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="116"/>
-      <c r="AA35" s="117"/>
-      <c r="AB35" s="123"/>
-      <c r="AC35" s="124"/>
-      <c r="AD35" s="115"/>
-      <c r="AE35" s="115"/>
-      <c r="AF35" s="116"/>
-      <c r="AG35" s="116"/>
-      <c r="AH35" s="117"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="112"/>
+      <c r="W35" s="103"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="104"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="105"/>
+      <c r="AB35" s="111"/>
+      <c r="AC35" s="112"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="103"/>
+      <c r="AF35" s="104"/>
+      <c r="AG35" s="104"/>
+      <c r="AH35" s="105"/>
       <c r="AI35" s="69"/>
       <c r="AJ35" s="70"/>
       <c r="AK35" s="55"/>
@@ -4830,20 +4832,20 @@
       <c r="R36" s="75"/>
       <c r="S36" s="75"/>
       <c r="T36" s="76"/>
-      <c r="U36" s="108"/>
-      <c r="V36" s="109"/>
-      <c r="W36" s="109"/>
-      <c r="X36" s="109"/>
-      <c r="Y36" s="109"/>
-      <c r="Z36" s="110"/>
-      <c r="AA36" s="111"/>
-      <c r="AB36" s="112"/>
-      <c r="AC36" s="109"/>
-      <c r="AD36" s="109"/>
-      <c r="AE36" s="109"/>
-      <c r="AF36" s="110"/>
-      <c r="AG36" s="110"/>
-      <c r="AH36" s="111"/>
+      <c r="U36" s="96"/>
+      <c r="V36" s="97"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="98"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="100"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="98"/>
+      <c r="AG36" s="98"/>
+      <c r="AH36" s="99"/>
       <c r="AI36" s="73"/>
       <c r="AJ36" s="74"/>
       <c r="AK36" s="74"/>
@@ -4901,20 +4903,20 @@
       <c r="R37" s="56"/>
       <c r="S37" s="57"/>
       <c r="T37" s="58"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="115"/>
-      <c r="X37" s="115"/>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="113"/>
-      <c r="AC37" s="114"/>
-      <c r="AD37" s="115"/>
-      <c r="AE37" s="115"/>
-      <c r="AF37" s="116"/>
-      <c r="AG37" s="116"/>
-      <c r="AH37" s="117"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="102"/>
+      <c r="W37" s="103"/>
+      <c r="X37" s="103"/>
+      <c r="Y37" s="104"/>
+      <c r="Z37" s="104"/>
+      <c r="AA37" s="105"/>
+      <c r="AB37" s="101"/>
+      <c r="AC37" s="102"/>
+      <c r="AD37" s="103"/>
+      <c r="AE37" s="103"/>
+      <c r="AF37" s="104"/>
+      <c r="AG37" s="104"/>
+      <c r="AH37" s="105"/>
       <c r="AI37" s="53"/>
       <c r="AJ37" s="54"/>
       <c r="AK37" s="55"/>
@@ -4970,20 +4972,20 @@
       <c r="R38" s="56"/>
       <c r="S38" s="57"/>
       <c r="T38" s="58"/>
-      <c r="U38" s="123"/>
-      <c r="V38" s="124"/>
-      <c r="W38" s="115"/>
-      <c r="X38" s="115"/>
-      <c r="Y38" s="116"/>
-      <c r="Z38" s="116"/>
-      <c r="AA38" s="117"/>
-      <c r="AB38" s="123"/>
-      <c r="AC38" s="124"/>
-      <c r="AD38" s="115"/>
-      <c r="AE38" s="115"/>
-      <c r="AF38" s="116"/>
-      <c r="AG38" s="116"/>
-      <c r="AH38" s="117"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="112"/>
+      <c r="W38" s="103"/>
+      <c r="X38" s="103"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="105"/>
+      <c r="AB38" s="111"/>
+      <c r="AC38" s="112"/>
+      <c r="AD38" s="103"/>
+      <c r="AE38" s="103"/>
+      <c r="AF38" s="104"/>
+      <c r="AG38" s="104"/>
+      <c r="AH38" s="105"/>
       <c r="AI38" s="69"/>
       <c r="AJ38" s="70"/>
       <c r="AK38" s="55"/>
@@ -5044,20 +5046,20 @@
       <c r="R39" s="75"/>
       <c r="S39" s="75"/>
       <c r="T39" s="76"/>
-      <c r="U39" s="108"/>
-      <c r="V39" s="109"/>
-      <c r="W39" s="109"/>
-      <c r="X39" s="109"/>
-      <c r="Y39" s="109"/>
-      <c r="Z39" s="110"/>
-      <c r="AA39" s="111"/>
-      <c r="AB39" s="112"/>
-      <c r="AC39" s="109"/>
-      <c r="AD39" s="109"/>
-      <c r="AE39" s="109"/>
-      <c r="AF39" s="110"/>
-      <c r="AG39" s="110"/>
-      <c r="AH39" s="111"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="97"/>
+      <c r="W39" s="97"/>
+      <c r="X39" s="97"/>
+      <c r="Y39" s="97"/>
+      <c r="Z39" s="98"/>
+      <c r="AA39" s="99"/>
+      <c r="AB39" s="100"/>
+      <c r="AC39" s="97"/>
+      <c r="AD39" s="97"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="98"/>
+      <c r="AG39" s="98"/>
+      <c r="AH39" s="99"/>
       <c r="AI39" s="73"/>
       <c r="AJ39" s="74"/>
       <c r="AK39" s="74"/>
@@ -5115,20 +5117,20 @@
       <c r="R40" s="56"/>
       <c r="S40" s="57"/>
       <c r="T40" s="58"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="116"/>
-      <c r="Z40" s="116"/>
-      <c r="AA40" s="117"/>
-      <c r="AB40" s="113"/>
-      <c r="AC40" s="114"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="116"/>
-      <c r="AG40" s="116"/>
-      <c r="AH40" s="117"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="102"/>
+      <c r="W40" s="103"/>
+      <c r="X40" s="103"/>
+      <c r="Y40" s="104"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="105"/>
+      <c r="AB40" s="101"/>
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="103"/>
+      <c r="AE40" s="103"/>
+      <c r="AF40" s="104"/>
+      <c r="AG40" s="104"/>
+      <c r="AH40" s="105"/>
       <c r="AI40" s="53"/>
       <c r="AJ40" s="54"/>
       <c r="AK40" s="55"/>
@@ -5186,20 +5188,20 @@
       <c r="R41" s="56"/>
       <c r="S41" s="57"/>
       <c r="T41" s="58"/>
-      <c r="U41" s="118"/>
-      <c r="V41" s="119"/>
-      <c r="W41" s="115"/>
-      <c r="X41" s="115"/>
-      <c r="Y41" s="116"/>
-      <c r="Z41" s="116"/>
-      <c r="AA41" s="117"/>
-      <c r="AB41" s="118"/>
-      <c r="AC41" s="119"/>
-      <c r="AD41" s="115"/>
-      <c r="AE41" s="115"/>
-      <c r="AF41" s="116"/>
-      <c r="AG41" s="116"/>
-      <c r="AH41" s="117"/>
+      <c r="U41" s="106"/>
+      <c r="V41" s="107"/>
+      <c r="W41" s="103"/>
+      <c r="X41" s="103"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="105"/>
+      <c r="AB41" s="106"/>
+      <c r="AC41" s="107"/>
+      <c r="AD41" s="103"/>
+      <c r="AE41" s="103"/>
+      <c r="AF41" s="104"/>
+      <c r="AG41" s="104"/>
+      <c r="AH41" s="105"/>
       <c r="AI41" s="59"/>
       <c r="AJ41" s="60"/>
       <c r="AK41" s="55"/>
@@ -5255,20 +5257,20 @@
       <c r="R42" s="56"/>
       <c r="S42" s="57"/>
       <c r="T42" s="58"/>
-      <c r="U42" s="123"/>
-      <c r="V42" s="124"/>
-      <c r="W42" s="115"/>
-      <c r="X42" s="115"/>
-      <c r="Y42" s="116"/>
-      <c r="Z42" s="116"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="123"/>
-      <c r="AC42" s="124"/>
-      <c r="AD42" s="115"/>
-      <c r="AE42" s="115"/>
-      <c r="AF42" s="116"/>
-      <c r="AG42" s="116"/>
-      <c r="AH42" s="117"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="112"/>
+      <c r="W42" s="103"/>
+      <c r="X42" s="103"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="105"/>
+      <c r="AB42" s="111"/>
+      <c r="AC42" s="112"/>
+      <c r="AD42" s="103"/>
+      <c r="AE42" s="103"/>
+      <c r="AF42" s="104"/>
+      <c r="AG42" s="104"/>
+      <c r="AH42" s="105"/>
       <c r="AI42" s="69"/>
       <c r="AJ42" s="70"/>
       <c r="AK42" s="55"/>
@@ -5309,7 +5311,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>17.649999999999999</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5351,7 +5353,7 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
@@ -5584,10 +5586,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="100"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5596,11 +5598,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="str">
+      <c r="A3" s="123" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>6</v>
@@ -5613,11 +5615,11 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="str">
+      <c r="A4" s="123" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="98"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>13</v>
@@ -5630,28 +5632,28 @@
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="str">
+      <c r="A5" s="123" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
         <v>139</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="str">
+      <c r="A6" s="123" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="98"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
         <v>17</v>
@@ -5663,11 +5665,11 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="str">
+      <c r="A7" s="123" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5679,11 +5681,11 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="str">
+      <c r="A8" s="123" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
         <v>0</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola_BLJv2\Desktop\SSPAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8270CCFE-C4DD-439A-9DFA-80BB89AC0144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41566E1-AEE6-4C4B-BEA2-BE5D027C0AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,7 +1726,7 @@
                   <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2233,8 +2233,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3677,7 +3677,9 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="55"/>
+      <c r="P20" s="55">
+        <v>1</v>
+      </c>
       <c r="Q20" s="55"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
@@ -3737,7 +3739,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3750,7 +3752,9 @@
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="63"/>
+      <c r="P21" s="63">
+        <v>5.5</v>
+      </c>
       <c r="Q21" s="63"/>
       <c r="R21" s="63"/>
       <c r="S21" s="57"/>
@@ -5311,7 +5315,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>18.149999999999999</v>
+        <v>24.65</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5353,7 +5357,7 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
@@ -5643,7 +5647,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola_BLJv2\Desktop\SSPAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41566E1-AEE6-4C4B-BEA2-BE5D027C0AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5F3D33-8A82-4834-9270-AB3A61064EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-1050" windowWidth="19394" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1726,7 +1726,7 @@
                   <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2234,7 +2234,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>21</v>
+        <v>29.25</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>15</v>
+        <v>15.75</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3680,7 +3680,9 @@
       <c r="P20" s="55">
         <v>1</v>
       </c>
-      <c r="Q20" s="55"/>
+      <c r="Q20" s="55">
+        <v>0.75</v>
+      </c>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
@@ -3739,7 +3741,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3755,7 +3757,9 @@
       <c r="P21" s="63">
         <v>5.5</v>
       </c>
-      <c r="Q21" s="63"/>
+      <c r="Q21" s="63">
+        <v>3.5</v>
+      </c>
       <c r="R21" s="63"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -3814,7 +3818,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3828,7 +3832,9 @@
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
       <c r="P22" s="55"/>
-      <c r="Q22" s="63"/>
+      <c r="Q22" s="63">
+        <v>4</v>
+      </c>
       <c r="R22" s="63"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
@@ -5315,7 +5321,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>24.65</v>
+        <v>32.9</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5361,7 +5367,7 @@
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
@@ -5647,7 +5653,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>21</v>
+        <v>29.25</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola_BLJv2\Desktop\SSPAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5F3D33-8A82-4834-9270-AB3A61064EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A0435-0D75-4C5E-8FD8-5BFE7886528B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-1050" windowWidth="19394" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14205" yWindow="-952" windowWidth="19395" windowHeight="10200" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1720,13 +1720,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.75</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.25</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2233,8 +2233,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="D12" s="83">
         <f>SUM(G12:BJ12)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -3084,7 +3084,9 @@
       <c r="O12" s="60"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
-      <c r="R12" s="63"/>
+      <c r="R12" s="63">
+        <v>0.5</v>
+      </c>
       <c r="S12" s="57"/>
       <c r="T12" s="58"/>
       <c r="U12" s="106"/>
@@ -3217,7 +3219,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3371,7 +3373,7 @@
       </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
@@ -3386,7 +3388,9 @@
       <c r="O16" s="60"/>
       <c r="P16" s="55"/>
       <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
+      <c r="R16" s="63">
+        <v>1</v>
+      </c>
       <c r="S16" s="57"/>
       <c r="T16" s="58"/>
       <c r="U16" s="106"/>
@@ -3514,7 +3518,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>29.25</v>
+        <v>36.25</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3741,7 +3745,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3760,7 +3764,9 @@
       <c r="Q21" s="63">
         <v>3.5</v>
       </c>
-      <c r="R21" s="63"/>
+      <c r="R21" s="63">
+        <v>1</v>
+      </c>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
       <c r="U21" s="106"/>
@@ -3893,7 +3899,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="51"/>
@@ -3908,7 +3914,9 @@
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="61"/>
-      <c r="R23" s="56"/>
+      <c r="R23" s="56">
+        <v>3</v>
+      </c>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="106"/>
@@ -3966,7 +3974,7 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
@@ -3981,7 +3989,9 @@
       <c r="O24" s="60"/>
       <c r="P24" s="55"/>
       <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
+      <c r="R24" s="56">
+        <v>3</v>
+      </c>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
       <c r="U24" s="106"/>
@@ -5321,7 +5331,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>32.9</v>
+        <v>41.4</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5371,7 +5381,7 @@
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="S43" s="39">
         <f t="shared" si="3"/>
@@ -5619,7 +5629,7 @@
       </c>
       <c r="D3" s="80">
         <f>Zeitplanung!D9</f>
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
@@ -5636,7 +5646,7 @@
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
@@ -5653,7 +5663,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>29.25</v>
+        <v>36.25</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola_BLJv2\Desktop\SSPAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A0435-0D75-4C5E-8FD8-5BFE7886528B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7789D764-0174-4E28-BC48-A961E0C9CDAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="-952" windowWidth="19395" windowHeight="10200" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-1050" windowWidth="19394" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -2233,8 +2233,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola_BLJv2\Desktop\SSPAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7789D764-0174-4E28-BC48-A961E0C9CDAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6523FA86-3D97-41A7-81BE-D171BA551619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-1050" windowWidth="19394" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1726,7 +1726,7 @@
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.25</c:v>
+                  <c:v>44.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2233,8 +2233,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AU27" sqref="AU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>36.25</v>
+        <v>44.25</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="51"/>
@@ -3935,7 +3935,9 @@
       <c r="AH23" s="105"/>
       <c r="AI23" s="59"/>
       <c r="AJ23" s="60"/>
-      <c r="AK23" s="63"/>
+      <c r="AK23" s="63">
+        <v>8</v>
+      </c>
       <c r="AL23" s="63"/>
       <c r="AM23" s="63"/>
       <c r="AN23" s="57"/>
@@ -5331,7 +5333,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>41.4</v>
+        <v>49.4</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5457,7 +5459,7 @@
       </c>
       <c r="AK43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL43" s="39">
         <f t="shared" si="3"/>
@@ -5663,7 +5665,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>36.25</v>
+        <v>44.25</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola_BLJv2\Desktop\SSPAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6523FA86-3D97-41A7-81BE-D171BA551619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E742A-90AA-4D53-9DFD-5E5BD56D27D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-1050" windowWidth="19394" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1726,7 +1726,7 @@
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.25</c:v>
+                  <c:v>51.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2233,8 +2233,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AU27" sqref="AU27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>44.25</v>
+        <v>51.25</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>15.75</v>
+        <v>20.75</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3707,7 +3707,9 @@
       <c r="AI20" s="59"/>
       <c r="AJ20" s="60"/>
       <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
+      <c r="AL20" s="55">
+        <v>5</v>
+      </c>
       <c r="AM20" s="56"/>
       <c r="AN20" s="57"/>
       <c r="AO20" s="58"/>
@@ -3899,7 +3901,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="51"/>
@@ -3938,7 +3940,9 @@
       <c r="AK23" s="63">
         <v>8</v>
       </c>
-      <c r="AL23" s="63"/>
+      <c r="AL23" s="63">
+        <v>2</v>
+      </c>
       <c r="AM23" s="63"/>
       <c r="AN23" s="57"/>
       <c r="AO23" s="58"/>
@@ -5333,7 +5337,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>49.4</v>
+        <v>56.4</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5463,7 +5467,7 @@
       </c>
       <c r="AL43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM43" s="39">
         <f t="shared" ref="AM43:BD43" si="4">SUM(AM9:AM42)</f>
@@ -5665,7 +5669,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>44.25</v>
+        <v>51.25</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola_BLJv2\Desktop\SSPAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E742A-90AA-4D53-9DFD-5E5BD56D27D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67C7E3F-AB8C-4A60-A59A-987497680537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-1050" windowWidth="19394" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1720,13 +1720,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.25</c:v>
+                  <c:v>71.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1735,7 +1735,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,8 +2233,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM26" sqref="AM26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AZ41" sqref="AZ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="D12" s="83">
         <f>SUM(G12:BJ12)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -3107,7 +3107,9 @@
       <c r="AJ12" s="60"/>
       <c r="AK12" s="61"/>
       <c r="AL12" s="61"/>
-      <c r="AM12" s="63"/>
+      <c r="AM12" s="63">
+        <v>0.5</v>
+      </c>
       <c r="AN12" s="57"/>
       <c r="AO12" s="58"/>
       <c r="AP12" s="59"/>
@@ -3518,7 +3520,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>51.25</v>
+        <v>71.25</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3901,7 +3903,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="51"/>
@@ -3943,13 +3945,19 @@
       <c r="AL23" s="63">
         <v>2</v>
       </c>
-      <c r="AM23" s="63"/>
+      <c r="AM23" s="63">
+        <v>7</v>
+      </c>
       <c r="AN23" s="57"/>
       <c r="AO23" s="58"/>
       <c r="AP23" s="59"/>
       <c r="AQ23" s="60"/>
-      <c r="AR23" s="63"/>
-      <c r="AS23" s="63"/>
+      <c r="AR23" s="63">
+        <v>8</v>
+      </c>
+      <c r="AS23" s="63">
+        <v>5</v>
+      </c>
       <c r="AT23" s="63"/>
       <c r="AU23" s="57"/>
       <c r="AV23" s="58"/>
@@ -5054,7 +5062,7 @@
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="31"/>
@@ -5125,7 +5133,7 @@
       <c r="C40" s="49"/>
       <c r="D40" s="83">
         <f>SUM(G40:BJ40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40" s="50"/>
       <c r="F40" s="51"/>
@@ -5167,7 +5175,9 @@
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
       <c r="AR40" s="55"/>
-      <c r="AS40" s="55"/>
+      <c r="AS40" s="55">
+        <v>3</v>
+      </c>
       <c r="AT40" s="56"/>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
@@ -5337,7 +5347,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>56.4</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5471,7 +5481,7 @@
       </c>
       <c r="AM43" s="39">
         <f t="shared" ref="AM43:BD43" si="4">SUM(AM9:AM42)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AN43" s="39">
         <f t="shared" si="4"/>
@@ -5491,11 +5501,11 @@
       </c>
       <c r="AR43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
@@ -5635,7 +5645,7 @@
       </c>
       <c r="D3" s="80">
         <f>Zeitplanung!D9</f>
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
@@ -5669,7 +5679,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>51.25</v>
+        <v>71.25</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
@@ -5718,7 +5728,7 @@
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="81"/>
     </row>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola_BLJv2\Desktop\SSPAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67C7E3F-AB8C-4A60-A59A-987497680537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5611D5-E7D8-47E2-8FF5-8A6BEA06DD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1735,7 +1735,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,8 +2233,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AZ41" sqref="AZ41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AT40" sqref="AT40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="31"/>
@@ -5133,7 +5133,7 @@
       <c r="C40" s="49"/>
       <c r="D40" s="83">
         <f>SUM(G40:BJ40)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E40" s="50"/>
       <c r="F40" s="51"/>
@@ -5178,7 +5178,9 @@
       <c r="AS40" s="55">
         <v>3</v>
       </c>
-      <c r="AT40" s="56"/>
+      <c r="AT40" s="56">
+        <v>8</v>
+      </c>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
       <c r="AW40" s="53"/>
@@ -5347,7 +5349,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>79.900000000000006</v>
+        <v>87.9</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5509,7 +5511,7 @@
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU43" s="39">
         <f t="shared" si="4"/>
@@ -5728,7 +5730,7 @@
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F8" s="81"/>
     </row>
